--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1452239.721515885</v>
+        <v>1446518.109547999</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095092</v>
+        <v>806345.8827095093</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10983774.061582</v>
+        <v>10983774.06158199</v>
       </c>
     </row>
     <row r="11">
@@ -670,13 +670,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>331.7615209354891</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>192.7335595529409</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -825,16 +825,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>150.5540262346244</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -870,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>94.63926978364023</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>159.1409556434268</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>126.6305324976341</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -952,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1071,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>3.993583393802418</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>99.44420492154083</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>269.5431107021495</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1189,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>5.983388191319154</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>59.72683757586863</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>30.54110646053131</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>18.26879610204007</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>63.72703424640802</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1660,7 +1660,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>87.38003424864922</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,13 +1818,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>203.4068132192029</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2013,16 +2013,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>72.33640507852758</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>44.15843579631086</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>59.9032091929889</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>270.3808622796243</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2417,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>146.7008107263316</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2572,7 +2572,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873199</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>6.380068175847634</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>154.6268617582982</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>118.6752559686</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3189,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>82.35785554497954</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>106.1291724544577</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3432,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>77.31354443380485</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,19 +3477,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>69.58060060097328</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>106.5867442799594</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>88.34375243347404</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3839,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3906,19 +3906,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>82.82214511885009</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>113.5103646250816</v>
       </c>
     </row>
     <row r="44">
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>50.5559617506116</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -4197,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>270.3808622796248</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2072.529454785695</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C2" t="n">
-        <v>1703.566937845283</v>
+        <v>1293.521057189058</v>
       </c>
       <c r="D2" t="n">
-        <v>1345.301239238533</v>
+        <v>935.2553585823075</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>549.4671059840632</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>542.5216052348597</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2326.291240147604</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2072.529454785695</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2072.529454785695</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2072.529454785695</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>2072.529454785695</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>2072.529454785695</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,10 +4409,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
         <v>670.8219208598708</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2022.963088632153</v>
+        <v>500.820796875036</v>
       </c>
       <c r="C4" t="n">
-        <v>2022.963088632153</v>
+        <v>500.820796875036</v>
       </c>
       <c r="D4" t="n">
-        <v>2022.963088632153</v>
+        <v>500.820796875036</v>
       </c>
       <c r="E4" t="n">
-        <v>2022.963088632153</v>
+        <v>352.9077032926429</v>
       </c>
       <c r="F4" t="n">
-        <v>2022.963088632153</v>
+        <v>206.0177557947325</v>
       </c>
       <c r="G4" t="n">
-        <v>2022.963088632153</v>
+        <v>206.0177557947325</v>
       </c>
       <c r="H4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>2697.149091018222</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>2407.975480672791</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V4" t="n">
-        <v>2407.975480672791</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W4" t="n">
-        <v>2118.55831063583</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X4" t="n">
-        <v>2022.963088632153</v>
+        <v>500.820796875036</v>
       </c>
       <c r="Y4" t="n">
-        <v>2022.963088632153</v>
+        <v>500.820796875036</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1363.553390680693</v>
+        <v>1315.737983561872</v>
       </c>
       <c r="C5" t="n">
-        <v>1363.553390680693</v>
+        <v>946.7754666214607</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>588.5097680147103</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>202.721515416466</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>195.7760146672626</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>181.8526106058535</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>181.8526106058535</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.209817970484</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2267.209817970484</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>1914.44116270037</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>1914.44116270037</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y5" t="n">
-        <v>1524.301830724558</v>
+        <v>1702.337823625994</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4646,43 +4646,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>409.2948950230955</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C7" t="n">
-        <v>409.2948950230955</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
-        <v>409.2948950230955</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>261.3818014407024</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>261.3818014407024</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>261.3818014407024</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>103.6334288732326</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>627.680292366494</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="W7" t="n">
-        <v>409.2948950230955</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="X7" t="n">
-        <v>409.2948950230955</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="Y7" t="n">
-        <v>409.2948950230955</v>
+        <v>372.9958041606071</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>802.0401021781393</v>
+        <v>1899.21241430279</v>
       </c>
       <c r="C8" t="n">
-        <v>433.0775852377275</v>
+        <v>1899.21241430279</v>
       </c>
       <c r="D8" t="n">
-        <v>74.81188663097703</v>
+        <v>1540.946715696039</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>1155.158463097795</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>744.1725583081873</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>326.2087502063741</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4804,13 +4804,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4837,19 +4837,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2636.076575092838</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2305.013687749267</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>1952.245032479153</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X8" t="n">
-        <v>1578.779274218073</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="Y8" t="n">
-        <v>1188.639942242261</v>
+        <v>1899.21241430279</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4883,43 +4883,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.8624625746712</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>261.1630682837987</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>667.8624625746712</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>667.8624625746712</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>667.8624625746712</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>667.8624625746712</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>667.8624625746712</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>667.8624625746712</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>667.8624625746712</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5035,7 +5035,7 @@
         <v>435.1415336001589</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5162,10 +5162,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>242.4509819463048</v>
+        <v>877.1197344942216</v>
       </c>
       <c r="C13" t="n">
-        <v>242.4509819463048</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D13" t="n">
-        <v>242.4509819463048</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E13" t="n">
-        <v>242.4509819463048</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G13" t="n">
         <v>95.56103444839442</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1937.890136708704</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1746.20425253553</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1524.437637105056</v>
+        <v>1891.972724441665</v>
       </c>
       <c r="U13" t="n">
-        <v>1235.3347702307</v>
+        <v>1602.869857567309</v>
       </c>
       <c r="V13" t="n">
-        <v>980.6502820248129</v>
+        <v>1348.185369361422</v>
       </c>
       <c r="W13" t="n">
-        <v>691.2331119878522</v>
+        <v>1058.768199324461</v>
       </c>
       <c r="X13" t="n">
-        <v>463.2435610898349</v>
+        <v>1058.768199324461</v>
       </c>
       <c r="Y13" t="n">
-        <v>242.4509819463048</v>
+        <v>1058.768199324461</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
         <v>2005.253839749764</v>
@@ -5263,40 +5263,40 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1963.918173296941</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M14" t="n">
-        <v>2497.450077968866</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N14" t="n">
-        <v>3044.228895027648</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O14" t="n">
-        <v>3547.201365906985</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
         <v>4719.034655862919</v>
@@ -5308,22 +5308,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161926</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G15" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468565</v>
@@ -5363,7 +5363,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5375,22 +5375,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5399,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.56103444839442</v>
+        <v>333.9403347179516</v>
       </c>
       <c r="C16" t="n">
-        <v>95.56103444839442</v>
+        <v>333.9403347179516</v>
       </c>
       <c r="D16" t="n">
-        <v>95.56103444839442</v>
+        <v>183.8236953056159</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56103444839442</v>
+        <v>183.8236953056159</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839442</v>
+        <v>183.8236953056159</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>183.8236953056159</v>
       </c>
       <c r="H16" t="n">
         <v>95.56103444839442</v>
@@ -5466,22 +5466,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V16" t="n">
-        <v>1015.408799357142</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="W16" t="n">
-        <v>725.9916293201816</v>
+        <v>964.3709295897388</v>
       </c>
       <c r="X16" t="n">
-        <v>498.0020784221642</v>
+        <v>736.3813786917215</v>
       </c>
       <c r="Y16" t="n">
-        <v>277.2094992786341</v>
+        <v>515.5887995481913</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690174</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749762</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143012</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544768</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551604</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001573</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
         <v>284.4401654074198</v>
@@ -5521,46 +5521,46 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M17" t="n">
-        <v>2216.257005193956</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N17" t="n">
-        <v>3196.009277420603</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>4010.914672075806</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107236</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331035</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604872</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261301</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991187</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730107</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G18" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>781.811212990069</v>
+        <v>806.7425750505952</v>
       </c>
       <c r="C19" t="n">
-        <v>612.8750300621621</v>
+        <v>637.8063921226883</v>
       </c>
       <c r="D19" t="n">
-        <v>462.7583906498263</v>
+        <v>487.6897527103525</v>
       </c>
       <c r="E19" t="n">
-        <v>314.8452970674332</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="F19" t="n">
-        <v>314.8452970674332</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G19" t="n">
-        <v>241.7782212305366</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5688,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1911.738985502369</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104704</v>
+        <v>1720.053101329195</v>
       </c>
       <c r="T19" t="n">
-        <v>1956.343466104704</v>
+        <v>1498.286485898721</v>
       </c>
       <c r="U19" t="n">
-        <v>1956.343466104704</v>
+        <v>1209.183619024365</v>
       </c>
       <c r="V19" t="n">
-        <v>1701.658977898817</v>
+        <v>1209.183619024365</v>
       </c>
       <c r="W19" t="n">
-        <v>1412.241807861856</v>
+        <v>1209.183619024365</v>
       </c>
       <c r="X19" t="n">
-        <v>1184.252256963839</v>
+        <v>1209.183619024365</v>
       </c>
       <c r="Y19" t="n">
-        <v>963.4596778203087</v>
+        <v>988.3910398808349</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
@@ -5740,40 +5740,40 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5785,19 +5785,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5822,31 +5822,31 @@
         <v>341.4333205763703</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K21" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
         <v>2436.460902902952</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3314.41660243073</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>3145.480419502823</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>3145.480419502823</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>3145.480419502823</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>3145.480419502823</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>2977.777582877542</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S22" t="n">
-        <v>4778.051722419721</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T22" t="n">
-        <v>4778.051722419721</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>4488.948855545364</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>4234.264367339478</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W22" t="n">
-        <v>3944.847197302517</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X22" t="n">
-        <v>3716.8576464045</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>3496.06506726097</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5977,13 +5977,13 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551625</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
@@ -5995,22 +5995,22 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1237.706702364128</v>
+        <v>1339.447785386687</v>
       </c>
       <c r="M23" t="n">
-        <v>2216.257005193957</v>
+        <v>2317.998088216516</v>
       </c>
       <c r="N23" t="n">
-        <v>3196.009277420604</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
@@ -6044,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>561.5038042865474</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C25" t="n">
-        <v>392.5676213586405</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
         <v>95.56103444839442</v>
@@ -6174,25 +6174,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U25" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V25" t="n">
-        <v>999.1036114208126</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W25" t="n">
-        <v>709.6864413838521</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X25" t="n">
-        <v>709.6864413838521</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y25" t="n">
-        <v>709.6864413838521</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D26" t="n">
         <v>1646.988141143013</v>
@@ -6214,43 +6214,43 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551615</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G26" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1803.682313196074</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2337.214217867999</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>2883.993034926781</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O26" t="n">
-        <v>3763.957685256236</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
         <v>4667.761053946815</v>
@@ -6259,19 +6259,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D27" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F27" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390118</v>
@@ -6311,7 +6311,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6338,7 +6338,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>270.9417306852383</v>
+        <v>877.1197344942216</v>
       </c>
       <c r="C28" t="n">
-        <v>102.0055477573314</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839441</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839441</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T28" t="n">
-        <v>1734.57685067423</v>
+        <v>1710.324259611426</v>
       </c>
       <c r="U28" t="n">
-        <v>1445.473983799873</v>
+        <v>1421.221392737069</v>
       </c>
       <c r="V28" t="n">
-        <v>1190.789495593986</v>
+        <v>1166.536904531182</v>
       </c>
       <c r="W28" t="n">
-        <v>901.3723255570255</v>
+        <v>877.1197344942216</v>
       </c>
       <c r="X28" t="n">
-        <v>673.3827746590082</v>
+        <v>877.1197344942216</v>
       </c>
       <c r="Y28" t="n">
-        <v>452.5901955154781</v>
+        <v>877.1197344942216</v>
       </c>
     </row>
     <row r="29">
@@ -6442,73 +6442,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>818.2062848686767</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1682.725100522031</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2216.257005193956</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N29" t="n">
-        <v>3196.009277420603</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C30" t="n">
-        <v>2980.089005086361</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D30" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E30" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F30" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G30" t="n">
-        <v>2389.019482279157</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H30" t="n">
-        <v>2298.517587917024</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I30" t="n">
-        <v>2279.510296318562</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>2373.187565809179</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K30" t="n">
-        <v>2611.451764789527</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L30" t="n">
-        <v>2978.149925102192</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M30" t="n">
-        <v>3425.426250324508</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>3898.949293878963</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P30" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S30" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T30" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
-        <v>3992.606527086244</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W30" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>481.6968904858347</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C31" t="n">
-        <v>312.7607075579278</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>312.7607075579278</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>312.7607075579278</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>312.7607075579278</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6648,25 +6648,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V31" t="n">
-        <v>999.1036114208126</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W31" t="n">
-        <v>709.6864413838521</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X31" t="n">
-        <v>481.6968904858347</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y31" t="n">
-        <v>481.6968904858347</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="32">
@@ -6688,16 +6688,16 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G32" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
         <v>284.4401654074198</v>
@@ -6706,31 +6706,31 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1482.778354750621</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M32" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N32" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O32" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
         <v>4208.252829604874</v>
@@ -6755,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D33" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F33" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089896</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468573</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6812,7 +6812,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>521.8150410860691</v>
+        <v>623.6704680167705</v>
       </c>
       <c r="C34" t="n">
-        <v>352.8788581581622</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D34" t="n">
-        <v>202.7622187458265</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839441</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
@@ -6882,28 +6882,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.65758193153</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T34" t="n">
-        <v>1764.65758193153</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="U34" t="n">
-        <v>1475.554715057174</v>
+        <v>1577.410141987875</v>
       </c>
       <c r="V34" t="n">
-        <v>1220.870226851287</v>
+        <v>1322.725653781988</v>
       </c>
       <c r="W34" t="n">
-        <v>931.4530568143261</v>
+        <v>1033.308483745028</v>
       </c>
       <c r="X34" t="n">
-        <v>703.4635059163088</v>
+        <v>805.3189328470103</v>
       </c>
       <c r="Y34" t="n">
-        <v>703.4635059163088</v>
+        <v>805.3189328470103</v>
       </c>
     </row>
     <row r="35">
@@ -6916,67 +6916,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1236.699401366028</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2215.249704195857</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>2762.028521254639</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
         <v>3150.95552873011</v>
@@ -6992,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D36" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F36" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320246</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7049,7 +7049,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>492.7083461157126</v>
+        <v>972.7495048756253</v>
       </c>
       <c r="C37" t="n">
-        <v>323.7721631878057</v>
+        <v>803.8133219477185</v>
       </c>
       <c r="D37" t="n">
-        <v>173.65552377547</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="E37" t="n">
-        <v>95.56103444839441</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839441</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839441</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7125,22 +7125,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T37" t="n">
-        <v>1956.343466104704</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U37" t="n">
-        <v>1667.240599230347</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V37" t="n">
-        <v>1412.556111024461</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="W37" t="n">
-        <v>1123.1389409875</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="X37" t="n">
-        <v>895.1493900894825</v>
+        <v>1375.190548849395</v>
       </c>
       <c r="Y37" t="n">
-        <v>674.3568109459524</v>
+        <v>1154.397969705865</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
@@ -7162,64 +7162,64 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1482.778354750621</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M38" t="n">
-        <v>2461.32865758045</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N38" t="n">
-        <v>3441.080929807096</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
         <v>189.2383039390118</v>
@@ -7286,7 +7286,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>909.2731541783409</v>
+        <v>747.3928343215996</v>
       </c>
       <c r="C40" t="n">
-        <v>909.2731541783409</v>
+        <v>578.4566513936927</v>
       </c>
       <c r="D40" t="n">
-        <v>801.6097761177758</v>
+        <v>428.340011981357</v>
       </c>
       <c r="E40" t="n">
-        <v>653.6966825353827</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="F40" t="n">
-        <v>506.8067350374723</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G40" t="n">
         <v>339.1038984121913</v>
       </c>
       <c r="H40" t="n">
-        <v>192.886711630049</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
@@ -7356,28 +7356,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T40" t="n">
-        <v>1453.060509258584</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U40" t="n">
-        <v>1163.957642384228</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V40" t="n">
-        <v>909.2731541783409</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="W40" t="n">
-        <v>909.2731541783409</v>
+        <v>1377.823429193387</v>
       </c>
       <c r="X40" t="n">
-        <v>909.2731541783409</v>
+        <v>1149.833878295369</v>
       </c>
       <c r="Y40" t="n">
-        <v>909.2731541783409</v>
+        <v>929.0412991518393</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
         <v>2005.253839749764</v>
@@ -7396,67 +7396,67 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G41" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>750.1800661608916</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1614.698881814246</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483406</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542188</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7523,7 +7523,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>737.3554149786656</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C43" t="n">
-        <v>737.3554149786656</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D43" t="n">
-        <v>737.3554149786656</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E43" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F43" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7593,28 +7593,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S43" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T43" t="n">
-        <v>1764.65758193153</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U43" t="n">
-        <v>1475.554715057174</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V43" t="n">
-        <v>1475.554715057174</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W43" t="n">
-        <v>1186.137545020213</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X43" t="n">
-        <v>958.1479941221958</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y43" t="n">
-        <v>737.3554149786656</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="44">
@@ -7651,16 +7651,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L44" t="n">
-        <v>1237.706702364128</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M44" t="n">
-        <v>2216.257005193956</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N44" t="n">
-        <v>3196.009277420603</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O44" t="n">
         <v>4075.973927750058</v>
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D45" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F45" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7760,7 +7760,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>391.866433243363</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C46" t="n">
-        <v>340.7998052124422</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D46" t="n">
-        <v>340.7998052124422</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E46" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F46" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G46" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H46" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839441</v>
@@ -7830,28 +7830,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T46" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U46" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V46" t="n">
-        <v>909.2731541783409</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W46" t="n">
-        <v>619.8559841413803</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X46" t="n">
-        <v>391.866433243363</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y46" t="n">
-        <v>391.866433243363</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8309,13 +8309,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8549,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>410.4190035206666</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>189.7998007892644</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9169,7 +9169,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>170.1140909277297</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9178,7 +9178,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>67.53663776704411</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476838</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>170.1140909277306</v>
+        <v>272.8828616575882</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9652,16 +9652,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9877,22 +9877,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P26" t="n">
-        <v>315.167921710931</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>201.9664098701115</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10354,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10363,7 +10363,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>133.2530576400246</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10588,19 +10588,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>219.3344627260153</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476829</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11299,19 +11299,19 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>170.1140909277297</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>258.6211785616921</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>70.66335656800726</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>155.8219150297612</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23658,7 +23658,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23670,7 +23670,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>57.37498066567156</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23706,13 +23706,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>16.14213605696631</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>93.68940318050065</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>44.77371687373648</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>84.85180572133189</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>16.14213605696671</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>33.13116945560569</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -24414,7 +24414,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>142.2354048423647</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>64.92208751787101</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>47.35055229042821</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>84.88896555364829</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>40.30479019211145</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -25320,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>69.12041821276432</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,19 +25365,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>156.1290547880639</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>42.02872873825298</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>58.09021021309513</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25794,19 +25794,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>63.61181752771908</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>105.0742887270132</v>
       </c>
     </row>
     <row r="44">
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>116.6908593480162</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26043,7 +26043,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>934114.8039074732</v>
+        <v>934114.8039074733</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>934114.8039074732</v>
+        <v>934114.8039074733</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>934114.8039074731</v>
+        <v>934114.8039074732</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>934114.8039074732</v>
+        <v>934114.8039074733</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>934114.8039074731</v>
+        <v>934114.8039074732</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>934114.8039074732</v>
+        <v>934114.8039074733</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>934114.8039074733</v>
+        <v>934114.8039074732</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>934114.8039074733</v>
+        <v>934114.8039074732</v>
       </c>
     </row>
     <row r="16">
@@ -26316,19 +26316,19 @@
         <v>492625.0619185698</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="E2" t="n">
+        <v>476498.1442643798</v>
+      </c>
+      <c r="F2" t="n">
+        <v>476498.1442643798</v>
+      </c>
+      <c r="G2" t="n">
         <v>476498.1442643799</v>
-      </c>
-      <c r="F2" t="n">
-        <v>476498.1442643799</v>
-      </c>
-      <c r="G2" t="n">
-        <v>476498.1442643797</v>
       </c>
       <c r="H2" t="n">
         <v>476498.1442643799</v>
@@ -26337,19 +26337,19 @@
         <v>476498.1442643799</v>
       </c>
       <c r="J2" t="n">
-        <v>476498.1442643797</v>
+        <v>476498.1442643798</v>
       </c>
       <c r="K2" t="n">
         <v>476498.1442643798</v>
       </c>
       <c r="L2" t="n">
-        <v>476498.1442643799</v>
+        <v>476498.1442643798</v>
       </c>
       <c r="M2" t="n">
         <v>476498.1442643797</v>
       </c>
       <c r="N2" t="n">
-        <v>476498.1442643799</v>
+        <v>476498.1442643797</v>
       </c>
       <c r="O2" t="n">
         <v>476498.1442643798</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192206.5963924298</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="C4" t="n">
         <v>192206.5963924297</v>
@@ -26432,22 +26432,22 @@
         <v>21619.60799709188</v>
       </c>
       <c r="G4" t="n">
+        <v>21619.6079970919</v>
+      </c>
+      <c r="H4" t="n">
+        <v>21619.60799709189</v>
+      </c>
+      <c r="I4" t="n">
         <v>21619.60799709187</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
+        <v>21619.60799709188</v>
+      </c>
+      <c r="K4" t="n">
         <v>21619.60799709187</v>
       </c>
-      <c r="I4" t="n">
+      <c r="L4" t="n">
         <v>21619.60799709188</v>
-      </c>
-      <c r="J4" t="n">
-        <v>21619.60799709187</v>
-      </c>
-      <c r="K4" t="n">
-        <v>21619.60799709186</v>
-      </c>
-      <c r="L4" t="n">
-        <v>21619.60799709187</v>
       </c>
       <c r="M4" t="n">
         <v>21619.60799709187</v>
@@ -26456,10 +26456,10 @@
         <v>21619.60799709187</v>
       </c>
       <c r="O4" t="n">
+        <v>21619.60799709188</v>
+      </c>
+      <c r="P4" t="n">
         <v>21619.60799709186</v>
-      </c>
-      <c r="P4" t="n">
-        <v>21619.60799709187</v>
       </c>
     </row>
     <row r="5">
@@ -26487,28 +26487,28 @@
         <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
         <v>96383.51825371364</v>
@@ -26524,46 +26524,46 @@
         <v>-372408.4917518138</v>
       </c>
       <c r="C6" t="n">
-        <v>217559.3874627307</v>
+        <v>217559.3874627306</v>
       </c>
       <c r="D6" t="n">
-        <v>217559.3874627307</v>
+        <v>217559.3874627306</v>
       </c>
       <c r="E6" t="n">
-        <v>-368882.3959798324</v>
+        <v>-369554.3508820904</v>
       </c>
       <c r="F6" t="n">
-        <v>358495.0180135744</v>
+        <v>357823.0631113163</v>
       </c>
       <c r="G6" t="n">
-        <v>358495.0180135743</v>
+        <v>357823.0631113166</v>
       </c>
       <c r="H6" t="n">
-        <v>358495.0180135743</v>
+        <v>357823.0631113164</v>
       </c>
       <c r="I6" t="n">
-        <v>358495.0180135743</v>
+        <v>357823.0631113162</v>
       </c>
       <c r="J6" t="n">
-        <v>182071.7988209813</v>
+        <v>181399.8439187234</v>
       </c>
       <c r="K6" t="n">
-        <v>358495.0180135743</v>
+        <v>357823.0631113163</v>
       </c>
       <c r="L6" t="n">
-        <v>358495.0180135744</v>
+        <v>357823.0631113163</v>
       </c>
       <c r="M6" t="n">
-        <v>228852.7031746295</v>
+        <v>228180.7482723715</v>
       </c>
       <c r="N6" t="n">
-        <v>358495.0180135744</v>
+        <v>357823.0631113162</v>
       </c>
       <c r="O6" t="n">
-        <v>358495.0180135743</v>
+        <v>357823.0631113163</v>
       </c>
       <c r="P6" t="n">
-        <v>358495.0180135743</v>
+        <v>357823.0631113164</v>
       </c>
     </row>
   </sheetData>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27390,13 +27390,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>82.02264908530589</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>23.71476080471689</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27545,16 +27545,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>5.616862607170788</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27590,19 +27590,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>131.0703856053969</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>223.5928860200538</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>25.3007837472271</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27672,16 +27672,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,13 +27776,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27791,13 +27791,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>130.9720383985358</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27830,13 +27830,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>186.8376693204369</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>54.37966206220761</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27909,16 +27909,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>245.2407793169701</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>107.5829646831823</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>181.6044324894876</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33262,7 +33262,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34210,7 +34210,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34459,7 +34459,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
         <v>557.708647897025</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35269,7 +35269,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>866.0091179129988</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>742.1016362021759</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
         <v>59.61319854222478</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>625.7042053200619</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>575.5896386552631</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O20" t="n">
-        <v>852.7555845359029</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,7 +36363,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>625.7042053200628</v>
+        <v>728.4729760499204</v>
       </c>
       <c r="M23" t="n">
         <v>988.4346493230593</v>
@@ -36372,16 +36372,16 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36597,22 +36597,22 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P26" t="n">
-        <v>713.9299079303029</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
         <v>250.7943048037195</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>539.157696425512</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597693</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
@@ -37074,7 +37074,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M32" t="n">
         <v>988.4346493230593</v>
@@ -37083,7 +37083,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>641.3060585282437</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
@@ -37308,19 +37308,19 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>727.3874636142344</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908545</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>641.3060585282437</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>470.444344195426</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>852.755584535902</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597718</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -38019,19 +38019,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>625.7042053200619</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>766.6741794499112</v>
       </c>
       <c r="P44" t="n">
         <v>398.7619862193719</v>
@@ -38107,7 +38107,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
         <v>415.1124034525806</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1446518.109547999</v>
+        <v>1449923.600672449</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836235</v>
+        <v>6654055.582836236</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095093</v>
+        <v>806345.8827095096</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10983774.06158199</v>
+        <v>10983774.061582</v>
       </c>
     </row>
     <row r="11">
@@ -670,10 +670,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>99.26910946537664</v>
       </c>
       <c r="G2" t="n">
-        <v>331.7615209354891</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -819,13 +819,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>68.49439899867225</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>150.5540262346244</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -870,10 +870,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -901,22 +901,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>126.6305324976341</v>
+        <v>63.24394419057889</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>14.46389722690833</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>99.44420492154083</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>382.2984476221669</v>
       </c>
       <c r="H8" t="n">
-        <v>269.5431107021495</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481175</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229334</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>59.72683757586863</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>14.46389722690822</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,7 +1387,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -1530,13 +1530,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>74.5703325417651</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,7 +1545,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>63.72703424640802</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1660,7 +1660,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>87.38003424864922</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>106.1851916846485</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1824,16 +1824,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247654</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2004,16 +2004,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>44.15843579631086</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2061,13 +2061,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292547</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>270.3808622796243</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2417,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292547</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2730,7 +2730,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>154.6268617582982</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>47.41254713315928</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247655</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>71.49367430371645</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>82.35785554497954</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>171.2900082150261</v>
       </c>
     </row>
     <row r="35">
@@ -3283,10 +3283,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -3483,16 +3483,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>69.58060060097328</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>147.9212967840867</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>88.34375243347404</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>152.6586601346117</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3839,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3906,19 +3906,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>72.2973295093604</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>113.5103646250816</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>18.93482921065027</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>270.3808622796248</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1662.48357412947</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="C2" t="n">
-        <v>1293.521057189058</v>
+        <v>1469.698544874887</v>
       </c>
       <c r="D2" t="n">
-        <v>935.2553585823075</v>
+        <v>1111.432846268137</v>
       </c>
       <c r="E2" t="n">
-        <v>549.4671059840632</v>
+        <v>725.6445936698926</v>
       </c>
       <c r="F2" t="n">
-        <v>542.5216052348597</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.48357412947</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="Y2" t="n">
-        <v>1662.48357412947</v>
+        <v>1838.661061815299</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>500.820796875036</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="C4" t="n">
-        <v>500.820796875036</v>
+        <v>270.0191909330953</v>
       </c>
       <c r="D4" t="n">
-        <v>500.820796875036</v>
+        <v>270.0191909330953</v>
       </c>
       <c r="E4" t="n">
-        <v>352.9077032926429</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>206.0177557947325</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>206.0177557947325</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4518,22 +4518,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>500.820796875036</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V4" t="n">
-        <v>500.820796875036</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W4" t="n">
-        <v>500.820796875036</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X4" t="n">
-        <v>500.820796875036</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="Y4" t="n">
-        <v>500.820796875036</v>
+        <v>438.9553738610022</v>
       </c>
     </row>
     <row r="5">
@@ -4549,37 +4549,37 @@
         <v>946.7754666214607</v>
       </c>
       <c r="D5" t="n">
-        <v>588.5097680147103</v>
+        <v>946.7754666214607</v>
       </c>
       <c r="E5" t="n">
-        <v>202.721515416466</v>
+        <v>946.7754666214607</v>
       </c>
       <c r="F5" t="n">
-        <v>195.7760146672626</v>
+        <v>535.7895618318532</v>
       </c>
       <c r="G5" t="n">
-        <v>181.8526106058535</v>
+        <v>117.8257537300401</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8526106058535</v>
+        <v>117.8257537300401</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372.9958041606071</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="U7" t="n">
-        <v>627.680292366494</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="V7" t="n">
-        <v>372.9958041606071</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="W7" t="n">
-        <v>372.9958041606071</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="X7" t="n">
-        <v>372.9958041606071</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="Y7" t="n">
-        <v>372.9958041606071</v>
+        <v>713.5189870075369</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1899.21241430279</v>
+        <v>2075.803581887073</v>
       </c>
       <c r="C8" t="n">
-        <v>1899.21241430279</v>
+        <v>2075.803581887073</v>
       </c>
       <c r="D8" t="n">
-        <v>1540.946715696039</v>
+        <v>1717.537883280323</v>
       </c>
       <c r="E8" t="n">
-        <v>1155.158463097795</v>
+        <v>1331.749630682078</v>
       </c>
       <c r="F8" t="n">
-        <v>744.1725583081873</v>
+        <v>920.7637258924708</v>
       </c>
       <c r="G8" t="n">
-        <v>326.2087502063741</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="W8" t="n">
-        <v>2289.351746278601</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="X8" t="n">
-        <v>2289.351746278601</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="Y8" t="n">
-        <v>1899.21241430279</v>
+        <v>2075.803581887073</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571346</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915165</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.81559303506</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785276</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D10" t="n">
-        <v>409.0761618661918</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1630682837987</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F10" t="n">
-        <v>114.2731207858883</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>713.5189870075369</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J11" t="n">
         <v>284.4401654074198</v>
@@ -5047,46 +5047,46 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O11" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J12" t="n">
         <v>189.2383039390118</v>
@@ -5153,7 +5153,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5162,10 +5162,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>877.1197344942216</v>
+        <v>781.811212990069</v>
       </c>
       <c r="C13" t="n">
-        <v>708.1835515663147</v>
+        <v>706.4876447660638</v>
       </c>
       <c r="D13" t="n">
-        <v>558.0669121539789</v>
+        <v>556.371005353728</v>
       </c>
       <c r="E13" t="n">
-        <v>410.1538185715858</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F13" t="n">
-        <v>263.2638710736754</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
@@ -5229,22 +5229,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1891.972724441665</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U13" t="n">
-        <v>1602.869857567309</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V13" t="n">
-        <v>1348.185369361422</v>
+        <v>1701.658977898817</v>
       </c>
       <c r="W13" t="n">
-        <v>1058.768199324461</v>
+        <v>1412.241807861856</v>
       </c>
       <c r="X13" t="n">
-        <v>1058.768199324461</v>
+        <v>1184.252256963839</v>
       </c>
       <c r="Y13" t="n">
-        <v>1058.768199324461</v>
+        <v>963.4596778203087</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
         <v>2005.253839749764</v>
@@ -5275,7 +5275,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J14" t="n">
         <v>284.4401654074198</v>
@@ -5284,28 +5284,28 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1482.778354750621</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M14" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N14" t="n">
-        <v>3196.009277420604</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O14" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T14" t="n">
         <v>4461.783306331037</v>
@@ -5314,16 +5314,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W14" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C15" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J15" t="n">
         <v>189.2383039390118</v>
@@ -5375,22 +5375,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>333.9403347179516</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="C16" t="n">
-        <v>333.9403347179516</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="D16" t="n">
-        <v>183.8236953056159</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E16" t="n">
-        <v>183.8236953056159</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F16" t="n">
-        <v>183.8236953056159</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G16" t="n">
-        <v>183.8236953056159</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
@@ -5460,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.65758193153</v>
+        <v>1759.255239483799</v>
       </c>
       <c r="T16" t="n">
-        <v>1542.890966501056</v>
+        <v>1537.488624053325</v>
       </c>
       <c r="U16" t="n">
-        <v>1253.788099626699</v>
+        <v>1248.385757178969</v>
       </c>
       <c r="V16" t="n">
-        <v>1253.788099626699</v>
+        <v>993.7012689730818</v>
       </c>
       <c r="W16" t="n">
-        <v>964.3709295897388</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="X16" t="n">
-        <v>736.3813786917215</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="Y16" t="n">
-        <v>515.5887995481913</v>
+        <v>704.2840989361212</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
@@ -5500,7 +5500,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
         <v>850.213983755162</v>
@@ -5512,7 +5512,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J17" t="n">
         <v>284.4401654074198</v>
@@ -5524,22 +5524,22 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M17" t="n">
-        <v>2461.328657580449</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N17" t="n">
-        <v>3441.080929807095</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O17" t="n">
-        <v>4010.914672075806</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S17" t="n">
         <v>4667.761053946815</v>
@@ -5551,16 +5551,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5570,52 +5570,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973187</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161917</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549405</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>487.967878549485</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>341.43332057637</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089881</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468556</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
         <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142067</v>
@@ -5624,16 +5624,16 @@
         <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
         <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
         <v>1346.568408282341</v>
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>806.7425750505952</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C19" t="n">
-        <v>637.8063921226883</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D19" t="n">
-        <v>487.6897527103525</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E19" t="n">
-        <v>339.7766591279594</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5688,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1911.738985502369</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1720.053101329195</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.286485898721</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.183619024365</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V19" t="n">
-        <v>1209.183619024365</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W19" t="n">
-        <v>1209.183619024365</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.183619024365</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y19" t="n">
-        <v>988.3910398808349</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5734,22 +5734,22 @@
         <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089252</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
         <v>284.4401654074198</v>
@@ -5761,28 +5761,28 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.328657580449</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N20" t="n">
-        <v>3441.080929807095</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750059</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
         <v>4208.252829604874</v>
@@ -5807,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C21" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089888</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320239</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5849,22 +5849,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5925,19 +5925,19 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.657581931529</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
         <v>1542.890966501056</v>
@@ -5946,16 +5946,16 @@
         <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>999.1036114208122</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W22" t="n">
-        <v>725.9916293201816</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X22" t="n">
-        <v>498.0020784221642</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y22" t="n">
-        <v>277.2094992786341</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
         <v>2005.253839749764</v>
@@ -5974,19 +5974,19 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
         <v>284.4401654074198</v>
@@ -5995,46 +5995,46 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1339.447785386687</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2317.998088216516</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N23" t="n">
-        <v>3297.750360443163</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O23" t="n">
-        <v>3800.7228313225</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6044,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089894</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6174,25 +6174,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W25" t="n">
-        <v>725.9916293201816</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X25" t="n">
-        <v>498.0020784221642</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y25" t="n">
-        <v>277.2094992786341</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
         <v>1646.988141143013</v>
@@ -6214,43 +6214,43 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001583</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089252</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>386.2645671479357</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>1040.987899283235</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1905.50671493659</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>2439.038619608515</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>2985.817436667297</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>3865.782086996752</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
         <v>4667.761053946815</v>
@@ -6259,19 +6259,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D27" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F27" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390118</v>
@@ -6311,7 +6311,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6338,7 +6338,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>877.1197344942216</v>
+        <v>1023.336921276364</v>
       </c>
       <c r="C28" t="n">
-        <v>708.1835515663147</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="D28" t="n">
-        <v>558.0669121539789</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E28" t="n">
-        <v>410.1538185715858</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F28" t="n">
-        <v>263.2638710736754</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T28" t="n">
-        <v>1710.324259611426</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U28" t="n">
-        <v>1421.221392737069</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V28" t="n">
-        <v>1166.536904531182</v>
+        <v>1701.658977898817</v>
       </c>
       <c r="W28" t="n">
-        <v>877.1197344942216</v>
+        <v>1653.767516148151</v>
       </c>
       <c r="X28" t="n">
-        <v>877.1197344942216</v>
+        <v>1425.777965250134</v>
       </c>
       <c r="Y28" t="n">
-        <v>877.1197344942216</v>
+        <v>1204.985386106604</v>
       </c>
     </row>
     <row r="29">
@@ -6451,49 +6451,49 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972662</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
         <v>4208.252829604874</v>
@@ -6518,37 +6518,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C30" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494852</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763703</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320239</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6563,7 +6563,7 @@
         <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142067</v>
@@ -6572,16 +6572,16 @@
         <v>2464.520220635547</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U30" t="n">
         <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X30" t="n">
         <v>1346.568408282341</v>
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839442</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839442</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839442</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839442</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6636,37 +6636,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S31" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T31" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W31" t="n">
-        <v>725.9916293201816</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X31" t="n">
-        <v>498.0020784221642</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.2094992786341</v>
+        <v>481.6968904858343</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
@@ -6703,25 +6703,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L32" t="n">
-        <v>1237.706702364128</v>
+        <v>1521.866738172571</v>
       </c>
       <c r="M32" t="n">
-        <v>2216.257005193957</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N32" t="n">
-        <v>3196.009277420604</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6733,19 +6733,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494857</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089896</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468573</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
@@ -6782,43 +6782,43 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X33" t="n">
         <v>1346.568408282341</v>
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>623.6704680167705</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="C34" t="n">
         <v>540.4807149410336</v>
@@ -6861,7 +6861,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
         <v>661.2306482927024</v>
@@ -6873,37 +6873,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S34" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T34" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="U34" t="n">
-        <v>1577.410141987875</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V34" t="n">
-        <v>1322.725653781988</v>
+        <v>1412.55611102446</v>
       </c>
       <c r="W34" t="n">
-        <v>1033.308483745028</v>
+        <v>1123.138940987499</v>
       </c>
       <c r="X34" t="n">
-        <v>805.3189328470103</v>
+        <v>895.1493900894816</v>
       </c>
       <c r="Y34" t="n">
-        <v>805.3189328470103</v>
+        <v>722.1291797712734</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
@@ -6937,52 +6937,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -6992,70 +6992,70 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494857</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763708</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320246</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X36" t="n">
         <v>1346.568408282341</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>972.7495048756253</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="C37" t="n">
-        <v>803.8133219477185</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="D37" t="n">
-        <v>653.6966825353827</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E37" t="n">
-        <v>653.6966825353827</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F37" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
@@ -7098,7 +7098,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L37" t="n">
         <v>661.2306482927024</v>
@@ -7110,37 +7110,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P37" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S37" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T37" t="n">
-        <v>1734.57685067423</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U37" t="n">
-        <v>1445.473983799873</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V37" t="n">
-        <v>1445.473983799873</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W37" t="n">
-        <v>1445.473983799873</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X37" t="n">
-        <v>1375.190548849395</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="Y37" t="n">
-        <v>1154.397969705865</v>
+        <v>242.4509819463048</v>
       </c>
     </row>
     <row r="38">
@@ -7153,49 +7153,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L38" t="n">
-        <v>1898.858917622688</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M38" t="n">
-        <v>2432.390822294613</v>
+        <v>2782.232616025903</v>
       </c>
       <c r="N38" t="n">
-        <v>2979.169639353395</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7213,7 +7213,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
         <v>3150.95552873011</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>747.3928343215996</v>
+        <v>559.3002584566048</v>
       </c>
       <c r="C40" t="n">
-        <v>578.4566513936927</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="D40" t="n">
-        <v>428.340011981357</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E40" t="n">
-        <v>339.1038984121913</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F40" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7359,25 +7359,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1956.343466104704</v>
+        <v>1802.142799302066</v>
       </c>
       <c r="T40" t="n">
-        <v>1956.343466104704</v>
+        <v>1802.142799302066</v>
       </c>
       <c r="U40" t="n">
-        <v>1667.240599230347</v>
+        <v>1513.039932427709</v>
       </c>
       <c r="V40" t="n">
-        <v>1667.240599230347</v>
+        <v>1258.355444221822</v>
       </c>
       <c r="W40" t="n">
-        <v>1377.823429193387</v>
+        <v>968.9382741848618</v>
       </c>
       <c r="X40" t="n">
-        <v>1149.833878295369</v>
+        <v>740.9487232868445</v>
       </c>
       <c r="Y40" t="n">
-        <v>929.0412991518393</v>
+        <v>740.9487232868445</v>
       </c>
     </row>
     <row r="41">
@@ -7390,22 +7390,22 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
@@ -7414,16 +7414,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>750.1800661608916</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1614.698881814246</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M41" t="n">
-        <v>2593.249184644075</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N41" t="n">
-        <v>3573.001456870722</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O41" t="n">
         <v>4075.973927750058</v>
@@ -7438,25 +7438,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161926</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G42" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468565</v>
@@ -7490,40 +7490,40 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q42" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T42" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>95.56103444839442</v>
+        <v>560.0445975595949</v>
       </c>
       <c r="C43" t="n">
-        <v>95.56103444839442</v>
+        <v>560.0445975595949</v>
       </c>
       <c r="D43" t="n">
-        <v>95.56103444839442</v>
+        <v>560.0445975595949</v>
       </c>
       <c r="E43" t="n">
-        <v>95.56103444839442</v>
+        <v>412.1315039772018</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839442</v>
+        <v>412.1315039772018</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7593,28 +7593,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T43" t="n">
-        <v>1453.060509258584</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U43" t="n">
-        <v>1163.957642384228</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="V43" t="n">
-        <v>909.2731541783409</v>
+        <v>1479.892362468343</v>
       </c>
       <c r="W43" t="n">
-        <v>619.8559841413803</v>
+        <v>1190.475192431382</v>
       </c>
       <c r="X43" t="n">
-        <v>391.866433243363</v>
+        <v>962.4856415333647</v>
       </c>
       <c r="Y43" t="n">
-        <v>277.2094992786341</v>
+        <v>741.6930623898346</v>
       </c>
     </row>
     <row r="44">
@@ -7648,28 +7648,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2337.214217867999</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>3316.966490094645</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R44" t="n">
         <v>4778.05172241972</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="C46" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="D46" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="E46" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H46" t="n">
         <v>95.56103444839441</v>
@@ -7845,13 +7845,13 @@
         <v>999.1036114208126</v>
       </c>
       <c r="W46" t="n">
-        <v>725.9916293201816</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X46" t="n">
-        <v>498.0020784221642</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y46" t="n">
-        <v>277.2094992786341</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
   </sheetData>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270196</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951791</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8695,7 +8695,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8704,7 +8704,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8932,13 +8932,13 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>189.7998007892644</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9178,7 +9178,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>67.53663776704411</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>9.059419880941277e-13</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9415,7 +9415,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>133.253057640027</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>272.8828616575882</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9652,16 +9652,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>102.8529310510261</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476838</v>
+        <v>133.2530576400261</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>8.917311333789257e-13</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10351,28 +10351,28 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>170.1140909277306</v>
+        <v>132.9990175570131</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476838</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>344.7025836476838</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>246.454569480845</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11062,7 +11062,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11074,7 +11074,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>258.6211785616921</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23418,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>92.67648855686274</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23469,10 +23469,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>155.8219150297612</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.37498066567156</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>83.58383364679339</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23892,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -23910,7 +23910,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>44.77371687373648</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24147,7 +24147,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>16.14213605696671</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24414,7 +24414,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>64.92208751787101</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>239.1104512034317</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24849,16 +24849,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>73.9273737192148</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>84.88896555364829</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>47.29464513706864</v>
       </c>
     </row>
     <row r="35">
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>156.1290547880639</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>70.66335656800811</v>
       </c>
     </row>
     <row r="38">
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>58.09021021309513</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>37.11036519683017</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25794,19 +25794,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>93.72847874966783</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>105.0742887270132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>160.897150971287</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26040,7 +26040,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>16.14213605696625</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>934114.8039074733</v>
+        <v>934114.8039074732</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>934114.8039074733</v>
+        <v>934114.8039074732</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>934114.8039074733</v>
+        <v>934114.8039074732</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>934114.8039074732</v>
+        <v>934114.8039074733</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>934114.8039074732</v>
+        <v>934114.8039074733</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>934114.8039074732</v>
+        <v>934114.8039074731</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>934114.8039074732</v>
+        <v>934114.8039074733</v>
       </c>
     </row>
     <row r="16">
@@ -26322,40 +26322,40 @@
         <v>492625.0619185698</v>
       </c>
       <c r="E2" t="n">
-        <v>476498.1442643798</v>
+        <v>476498.1442643797</v>
       </c>
       <c r="F2" t="n">
-        <v>476498.1442643798</v>
+        <v>476498.1442643797</v>
       </c>
       <c r="G2" t="n">
         <v>476498.1442643799</v>
       </c>
       <c r="H2" t="n">
-        <v>476498.1442643799</v>
+        <v>476498.1442643798</v>
       </c>
       <c r="I2" t="n">
-        <v>476498.1442643799</v>
+        <v>476498.1442643798</v>
       </c>
       <c r="J2" t="n">
         <v>476498.1442643798</v>
       </c>
       <c r="K2" t="n">
+        <v>476498.1442643797</v>
+      </c>
+      <c r="L2" t="n">
+        <v>476498.1442643797</v>
+      </c>
+      <c r="M2" t="n">
+        <v>476498.1442643799</v>
+      </c>
+      <c r="N2" t="n">
+        <v>476498.14426438</v>
+      </c>
+      <c r="O2" t="n">
+        <v>476498.1442643797</v>
+      </c>
+      <c r="P2" t="n">
         <v>476498.1442643798</v>
-      </c>
-      <c r="L2" t="n">
-        <v>476498.1442643798</v>
-      </c>
-      <c r="M2" t="n">
-        <v>476498.1442643797</v>
-      </c>
-      <c r="N2" t="n">
-        <v>476498.1442643797</v>
-      </c>
-      <c r="O2" t="n">
-        <v>476498.1442643798</v>
-      </c>
-      <c r="P2" t="n">
-        <v>476498.1442643797</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934069</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26417,43 +26417,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="C4" t="n">
         <v>192206.5963924297</v>
       </c>
       <c r="D4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="E4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="F4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="G4" t="n">
-        <v>21619.6079970919</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="H4" t="n">
-        <v>21619.60799709189</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="I4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="J4" t="n">
+        <v>21619.60799709186</v>
+      </c>
+      <c r="K4" t="n">
+        <v>21619.60799709189</v>
+      </c>
+      <c r="L4" t="n">
+        <v>21619.60799709189</v>
+      </c>
+      <c r="M4" t="n">
+        <v>21619.6079970919</v>
+      </c>
+      <c r="N4" t="n">
         <v>21619.60799709188</v>
-      </c>
-      <c r="K4" t="n">
-        <v>21619.60799709187</v>
-      </c>
-      <c r="L4" t="n">
-        <v>21619.60799709188</v>
-      </c>
-      <c r="M4" t="n">
-        <v>21619.60799709187</v>
-      </c>
-      <c r="N4" t="n">
-        <v>21619.60799709187</v>
       </c>
       <c r="O4" t="n">
         <v>21619.60799709188</v>
@@ -26478,10 +26478,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371364</v>
@@ -26490,19 +26490,19 @@
         <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
         <v>96383.51825371366</v>
@@ -26524,46 +26524,46 @@
         <v>-372408.4917518138</v>
       </c>
       <c r="C6" t="n">
-        <v>217559.3874627306</v>
+        <v>217559.3874627307</v>
       </c>
       <c r="D6" t="n">
         <v>217559.3874627306</v>
       </c>
       <c r="E6" t="n">
-        <v>-369554.3508820904</v>
+        <v>-368949.5914700584</v>
       </c>
       <c r="F6" t="n">
-        <v>357823.0631113163</v>
+        <v>358427.8225233485</v>
       </c>
       <c r="G6" t="n">
-        <v>357823.0631113166</v>
+        <v>358427.8225233486</v>
       </c>
       <c r="H6" t="n">
-        <v>357823.0631113164</v>
+        <v>358427.8225233485</v>
       </c>
       <c r="I6" t="n">
-        <v>357823.0631113162</v>
+        <v>358427.8225233485</v>
       </c>
       <c r="J6" t="n">
-        <v>181399.8439187234</v>
+        <v>182004.6033307556</v>
       </c>
       <c r="K6" t="n">
-        <v>357823.0631113163</v>
+        <v>358427.8225233486</v>
       </c>
       <c r="L6" t="n">
-        <v>357823.0631113163</v>
+        <v>358427.8225233484</v>
       </c>
       <c r="M6" t="n">
-        <v>228180.7482723715</v>
+        <v>228785.5076844038</v>
       </c>
       <c r="N6" t="n">
-        <v>357823.0631113162</v>
+        <v>358427.8225233486</v>
       </c>
       <c r="O6" t="n">
-        <v>357823.0631113163</v>
+        <v>358427.8225233484</v>
       </c>
       <c r="P6" t="n">
-        <v>357823.0631113164</v>
+        <v>358427.8225233485</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762118</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27390,10 +27390,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>307.6069362763348</v>
       </c>
       <c r="G2" t="n">
-        <v>82.02264908530589</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27539,13 +27539,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>77.93956364789692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>5.616862607170788</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27590,10 +27590,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27621,22 +27621,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>25.3007837472271</v>
+        <v>88.68737205428235</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27776,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>14.65885272800598</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27830,10 +27830,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>186.8376693204369</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>31.48572239862813</v>
       </c>
       <c r="H8" t="n">
-        <v>54.37966206220761</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27915,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,16 +28025,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>107.5829646831823</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>14.65885272800612</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554464</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633793</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.64752920647355</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141105</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.84709008118891</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034979</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.0534542921061915</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078608</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644439</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302235</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175839</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383796</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678005</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33259,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33347,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33365,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33496,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33584,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33602,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34459,13 +34459,13 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
         <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.392610473064</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.8709020871395</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873145</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35415,7 +35415,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M11" t="n">
         <v>988.4346493230593</v>
@@ -35424,7 +35424,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
         <v>398.7619862193719</v>
@@ -35652,13 +35652,13 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M14" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>742.1016362021759</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
         <v>888.8531821509645</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>575.5896386552631</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>641.306058528246</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,7 +36363,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>728.4729760499204</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
         <v>988.4346493230593</v>
@@ -36372,16 +36372,16 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36594,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>293.6399320197387</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
         <v>59.61319854222478</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O29" t="n">
-        <v>852.7555845359029</v>
+        <v>641.3060585282451</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37004,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L32" t="n">
-        <v>625.7042053200628</v>
+        <v>588.5891319493451</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37241,13 +37241,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359029</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>800.2926980400159</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>798.7564048937564</v>
       </c>
       <c r="O38" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>470.444344195426</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
         <v>873.2513289427826</v>
@@ -37794,7 +37794,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193719</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>766.6741794499112</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38107,13 +38107,13 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
         <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
